--- a/jpcore-r4/feature/kohe-name-related/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/kohe-name-related/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-19T00:37:33+00:00</t>
+    <t>2022-06-19T00:48:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/kohe-name-related/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/kohe-name-related/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-19T00:48:57+00:00</t>
+    <t>2022-06-19T01:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/kohe-name-related/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/kohe-name-related/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-19T01:00:26+00:00</t>
+    <t>2022-06-19T01:06:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/kohe-name-related/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/kohe-name-related/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-19T01:06:59+00:00</t>
+    <t>2022-06-19T01:12:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/kohe-name-related/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/kohe-name-related/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-19T01:12:48+00:00</t>
+    <t>2022-06-26T21:19:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
